--- a/biology/Zoologie/Itara/Itara.xlsx
+++ b/biology/Zoologie/Itara/Itara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Itara est un genre d'insectes orthoptères de la famille des Gryllidae, le seul de la sous-famille des Itarinae.
 Les Itarinae appartiennent à un groupe avec les Gryllinae Laicharting, 1781, les Gryllomiminae Gorochov 1986, les Gryllomorphinae Saussure 1877, les Landrevinae Gorochov 1982, les Sclerogryllinae Gorochov 1985 et les †Gryllospeculinae Gorochov 1985.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud et en Asie du Sud-Est.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (27 mars 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (27 mars 2010) :
 Itara (Bornitara) Gorochov, 1997
 Itara borneoensis Gorochov, 1997
 Itara chopardi Gorochov, 1997
@@ -631,7 +647,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Walker, 1869 : Catalogue of the specimens of Dermaptera Saltatoria and supplement to the Blattariae in the collections of the British Museum (Part I). British Museum, London, p. 1-224.
 Chopard, 1932 : Résultats scientifiques du voyage aux Indes Orientales Néerlandaises de LL.AA.RR. le Prince et la Princesse Léopold de Belgique. IV. 1. Gryllidae et Gryllacrididae. Mémoires du Muséum d’Histoire Naturelle de Belgique, vol. 14, p. 1-22.</t>
